--- a/merged/merged_cleaned_attendance_20250215_105225.xlsx_cleaned_Data_Validation_20250214_110029.xlsx.xlsx
+++ b/merged/merged_cleaned_attendance_20250215_105225.xlsx_cleaned_Data_Validation_20250214_110029.xlsx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,40 +466,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>select training date</t>
+          <t>select your job category</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>organization / institution</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>select your job category</t>
+          <t>job title</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>organization / institution</t>
+          <t>specify category</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>job title</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>specify category</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>county</t>
         </is>
@@ -534,32 +524,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11th -13th February 2025</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Evening 5:30pm - 8pm</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>Bungoma</t>
         </is>
